--- a/Design/Main_Data/TB_Character.xlsx
+++ b/Design/Main_Data/TB_Character.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chief\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <t>group_UpTableGroupID</t>
   </si>
   <si>
-    <t>group_UpTableGroupID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char_Icon</t>
   </si>
   <si>
@@ -221,6 +217,10 @@
   </si>
   <si>
     <t xml:space="preserve">* Chracter ID는 1~10000까지 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growUp_TableGroupID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -806,7 +806,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -814,19 +814,19 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -856,54 +856,54 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -911,10 +911,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -922,10 +922,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -933,10 +933,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -944,21 +944,21 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -966,54 +966,54 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,19 +1062,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="14" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>9</v>
@@ -1086,22 +1086,22 @@
         <v>13</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Main_Data/TB_Character.xlsx
+++ b/Design/Main_Data/TB_Character.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>char_ID</t>
   </si>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t>growUp_TableGroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalDamage_Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,18 +1048,20 @@
     <col min="5" max="5" width="9.5" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1074,33 +1084,39 @@
         <v>24</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Design/Main_Data/TB_Character.xlsx
+++ b/Design/Main_Data/TB_Character.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>char_ID</t>
   </si>
@@ -229,6 +229,146 @@
   </si>
   <si>
     <t>criticalDamage_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>El</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>La</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Profile\1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource\UI\Common\1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\Ag.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\Ak.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\Bc.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\Ce.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\El.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\La.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\Mi.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\Resources\Heroes\Prefabs\Yu.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,10 +1173,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1055,9 +1198,9 @@
     <col min="12" max="13" width="10.25" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.375" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.5" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,6 +1263,478 @@
         <v>50</v>
       </c>
     </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="14">
+        <v>100</v>
+      </c>
+      <c r="E2" s="14">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14">
+        <v>150</v>
+      </c>
+      <c r="J2" s="14">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="14">
+        <v>200</v>
+      </c>
+      <c r="E3" s="14">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14">
+        <v>150</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="14">
+        <v>150</v>
+      </c>
+      <c r="E4" s="14">
+        <v>18</v>
+      </c>
+      <c r="F4" s="14">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14">
+        <v>12</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5</v>
+      </c>
+      <c r="I4" s="14">
+        <v>150</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="14">
+        <v>200</v>
+      </c>
+      <c r="E5" s="14">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14">
+        <v>150</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5</v>
+      </c>
+      <c r="I6" s="14">
+        <v>150</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="14">
+        <v>300</v>
+      </c>
+      <c r="E7" s="14">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14">
+        <v>150</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14">
+        <v>150</v>
+      </c>
+      <c r="E8" s="14">
+        <v>18</v>
+      </c>
+      <c r="F8" s="14">
+        <v>7</v>
+      </c>
+      <c r="G8" s="14">
+        <v>10</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>150</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>16</v>
+      </c>
+      <c r="H9" s="14">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <v>150</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
